--- a/public/files/tabla_productos_boutique.xlsx
+++ b/public/files/tabla_productos_boutique.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB52DEE-8A6F-4A13-8410-A2574952417F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CD2E1E-D8F1-49E8-BBDC-FE3EC1A97C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{841A4ED2-92B5-4BB1-8840-CAA33848FE12}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Precio de compra</t>
   </si>
@@ -142,6 +142,24 @@
   </si>
   <si>
     <t xml:space="preserve">Diferentes tamaños del producto. Escribir nombre de la talla y la abreviación (si es que la tiene) separadas de un guion medio (-) como en los ejemplos. </t>
+  </si>
+  <si>
+    <t>Color*</t>
+  </si>
+  <si>
+    <t>Seleccionar el color de la prenda. Si no está el color que requieres, selecciona "Otro". El color lo puedes agregar y editar la prenda después</t>
+  </si>
+  <si>
+    <t>Azul claro</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Otro</t>
   </si>
 </sst>
 </file>
@@ -221,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -336,11 +354,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF68C0F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF68C0F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -372,9 +403,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -390,6 +418,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,61 +828,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E9A74-4C47-4AC4-BBDB-875C92C515E2}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="41.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" style="22" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1"/>
-    <col min="11" max="11" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="23" width="9.109375" style="1"/>
+    <col min="3" max="3" width="25.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="21" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="24" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
+      <c r="E2" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -864,312 +898,341 @@
       <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8"/>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="9"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" ht="81" x14ac:dyDescent="0.45">
-      <c r="A3" s="18" t="s">
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="97.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="8"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="8"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>130</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>90</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
         <v>5</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="8"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>130</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>90</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>9</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="8"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="21">
         <v>28</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>250</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>200</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>10</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>6</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="8"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="21">
         <v>30</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>290</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>240</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>15</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>10</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="8"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="21">
         <v>32</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>290</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>240</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>4</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>15</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>4</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="8"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="K10" s="9"/>
-      <c r="L10" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L10" s="9"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K11" s="11"/>
-      <c r="L11" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L11" s="11"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="K12" s="11"/>
-      <c r="L12" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L12" s="11"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="F13"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="G13"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K14" s="9"/>
-      <c r="L14" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L14" s="9"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="K15" s="9"/>
-      <c r="L15" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L15" s="9"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="K16" s="9"/>
-      <c r="L16" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L16" s="9"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="11:15" x14ac:dyDescent="0.45">
-      <c r="K17" s="9"/>
-      <c r="L17" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L17" s="9"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="11:15" x14ac:dyDescent="0.45">
-      <c r="K18" s="9"/>
-      <c r="L18" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L18" s="9"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <protectedRanges>
-    <protectedRange sqref="A5:I1048576" name="Rango3"/>
+    <protectedRange sqref="A5:J1048576" name="Rango3"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1000" xr:uid="{FC7CD3E2-A505-4A0D-9F53-69405AF0F8E7}">
+      <formula1>"Amarillo,Azul claro,Azul marino,Beige,Blanco,Café,Café claro (camel),Coral,Gris,Morado,Mostaza,Naranja,Negro,Rosa,Rosa pastel,Rojo,Tinto,Turquesa,Verde,Verde militar,Violeta,Otro"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
